--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3845047.558632316</v>
+        <v>3842795.478921109</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>61.31988685655021</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>143.0659977617357</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.61592966729592</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.472338733543</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.792004777351667</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846149</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.59580281112687</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.68942351146712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187882</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.08886905994821</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>141.6930519056953</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.799772605717069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>53.11937003877912</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571659</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>103.8784673763408</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2843,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784709</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>96.99837838564396</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711285</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2038.144201386634</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.33740552049</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794327</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450756</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450756</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450756</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>2424.744041450756</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686083</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064758</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962573</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609173</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>922.6774975139006</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1915.561285798296</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1915.561285798296</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1915.561285798296</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1915.561285798296</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1660.876797592409</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W4" t="n">
-        <v>1371.459627555448</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X4" t="n">
-        <v>1143.470076657431</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.6774975139006</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601529</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>825.351820332246</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199102</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1101.990851592603</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111718</v>
@@ -5045,7 +5045,7 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5063,10 +5063,10 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349515</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,7 +5264,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5303,13 +5303,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191926</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349515</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061504</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.043492616111</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5768,7 +5768,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>229.5592957321584</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6014,13 +6014,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397185</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2149.810879820877</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>408.925855915485</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6421,13 +6421,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921476</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6838,19 +6838,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7078,19 +7078,19 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>565.7099969556949</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>415.5933575433592</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>415.5933575433592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>415.5933575433592</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111701</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180517</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000582</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.620786329089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294901</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>6.9224211125171</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405073</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294947</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>63.36835372228708</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.52575990662488</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911101</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647286.3630150413</v>
+        <v>647286.3630150415</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299765</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>636517.6061299763</v>
+        <v>636517.6061299762</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.725617676</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="N2" t="n">
         <v>786967.9346977556</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977554</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551201</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815694</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680574</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="G4" t="n">
+        <v>11776.97621680577</v>
+      </c>
+      <c r="H4" t="n">
         <v>11776.9762168058</v>
       </c>
-      <c r="H4" t="n">
-        <v>11776.97621680579</v>
-      </c>
       <c r="I4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="J4" t="n">
+        <v>11776.97621680577</v>
+      </c>
+      <c r="K4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680576</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680577</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680574</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594676</v>
+        <v>-727126.9716594672</v>
       </c>
       <c r="C6" t="n">
         <v>601617.7740681259</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681252</v>
+        <v>601617.7740681256</v>
       </c>
       <c r="E6" t="n">
-        <v>348655.9668496877</v>
+        <v>348621.2289242515</v>
       </c>
       <c r="F6" t="n">
-        <v>674068.4286570426</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="G6" t="n">
-        <v>674068.4286570428</v>
+        <v>674033.6907316076</v>
       </c>
       <c r="H6" t="n">
-        <v>674068.428657043</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="I6" t="n">
-        <v>674068.4286570428</v>
+        <v>674033.6907316074</v>
       </c>
       <c r="J6" t="n">
-        <v>456537.2262597653</v>
+        <v>456502.48833433</v>
       </c>
       <c r="K6" t="n">
-        <v>674068.4286570428</v>
+        <v>674033.6907316069</v>
       </c>
       <c r="L6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="M6" t="n">
-        <v>589013.4007215312</v>
+        <v>588978.6627960952</v>
       </c>
       <c r="N6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.690731607</v>
       </c>
       <c r="O6" t="n">
-        <v>674068.4286570428</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="P6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.6907316068</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,22 +26811,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>303.9530049144573</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>226.6651029167333</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>77.31622300275137</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549411</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>377.9418368861289</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.819342382546</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254641</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>366.5485151445865</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28093,16 +28093,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.54335762560769e-12</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28141,10 +28141,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>-1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550387</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>437.853104691376</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,34 +32075,34 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796302</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,34 +32312,34 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32783,34 +32783,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33020,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622658</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>549.9198891312099</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
         <v>867.8464071162563</v>
@@ -33257,13 +33257,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33494,19 +33494,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>362.8934092184356</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33901,7 +33901,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
@@ -33974,16 +33974,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>618.3341264639744</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>602.4605829984174</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34363,10 +34363,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817577</v>
@@ -34445,19 +34445,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>162.5000833330452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437244</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717054</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770457</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629693</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875399</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402476</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>407.3236446867654</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
         <v>632.079992146269</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>224.3390294385614</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789214</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37549,7 +37549,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193518</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37789,7 +37789,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
@@ -37859,16 +37859,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>476.2000925419561</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>471.1188709150841</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
         <v>479.4543240367771</v>
@@ -38093,19 +38093,19 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>23.94570355317107</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O45" t="n">
         <v>557.48457599928</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
